--- a/biology/Botanique/Sedum_morganianum/Sedum_morganianum.xlsx
+++ b/biology/Botanique/Sedum_morganianum/Sedum_morganianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sedum morganianum, aussi appelée queue d'âne, orpin de Morgane ou queue de burro, est une espèce de plante à fleurs de la famille des Crassulacées, originaire du sud du Mexique et du Honduras.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est aussi appelée queue d'âne, orpin de Morgane[2],[3] ou queue de burro.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est aussi appelée queue d'âne, orpin de Morgane, ou queue de burro.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace succulente produisant des tiges pendantes atteignant 60 cm (24 po) de long, avec des feuilles charnues bleu-vert et des fleurs terminales roses à rouges en été[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace succulente produisant des tiges pendantes atteignant 60 cm (24 po) de long, avec des feuilles charnues bleu-vert et des fleurs terminales roses à rouges en été.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de la famille des Crassulacées.
 </t>
@@ -604,7 +622,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est originaire du sud du Mexique et du Honduras.
 </t>
@@ -635,7 +655,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée comme plante ornementale.
 </t>
@@ -666,7 +688,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs variétés sont cultivées.
 </t>
@@ -697,9 +721,11 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a remporté le Prix du Mérite du Jardin de la Société royale d'horticulture[5].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a remporté le Prix du Mérite du Jardin de la Société royale d'horticulture.
 </t>
         </is>
       </c>
